--- a/data/long_bre/IMC_R-Edad-long_bre.xlsx
+++ b/data/long_bre/IMC_R-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,99%</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>-32,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 4,54</t>
+          <t>-11,65; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,4</t>
+          <t>-6,05; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 96,14</t>
+          <t>-12,25; 10,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 630,37</t>
+          <t>-76,81; 92,84</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-77,77; 368,5</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-80,97; 440,61</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 12,42</t>
+          <t>-11,49; 12,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 13,86</t>
+          <t>-4,26; 13,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 16,11</t>
+          <t>-4,95; 26,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 17,46</t>
+          <t>-13,18; 15,98</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 17,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 42,1</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-73,22%</t>
+          <t>46,73%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-69,12%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-64,9%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 10,19</t>
+          <t>-5,6; 14,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -0,84</t>
+          <t>-12,9; -0,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-60,23; 364,66</t>
+          <t>-24,38; -0,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-94,98; 34,03</t>
+          <t>-61,66; 614,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 48,24</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-91,48; 1,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 3,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 104,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 85,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-14,66%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-14,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 16,27</t>
+          <t>-7,11; 5,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 8,53</t>
+          <t>-7,62; 4,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 21,7</t>
+          <t>-2,11; 11,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 10,4</t>
+          <t>-73,02; 156,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-72,74; 109,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-36,36; 515,12</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-42,17%</t>
+          <t>-16,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-17,69%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 2,12</t>
+          <t>-4,8; 13,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,84</t>
+          <t>-8,7; 7,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,4; 45,28</t>
+          <t>-26,47; -5,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 163,71</t>
+          <t>-5,29; 17,65</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 8,87</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-28,33; -6,29</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-26,19%</t>
+          <t>-36,49%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>356,07%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 1,82</t>
+          <t>-10,91; 3,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,59</t>
+          <t>-3,54; 7,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 32,14</t>
+          <t>4,29; 19,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 70,05</t>
+          <t>-75,42; 61,43</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 199,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36,38; 1912,61</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 16,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 11,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 22,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 16,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-35,68%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-34,28%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-32,19%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-12,23%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 2,41</t>
+          <t>-13,77; 3,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 5,34</t>
+          <t>-7,09; 1,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-80,31; 81,17</t>
+          <t>-8,72; 4,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-56,47; 77,25</t>
+          <t>-71,75; 45,68</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-69,23; 42,42</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-57,76; 66,74</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,27</t>
+          <t>-1,33; 15,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 3,25</t>
+          <t>-4,6; 11,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 226,29</t>
+          <t>-1,9; 15,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 63,29</t>
+          <t>-1,5; 22,29</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 15,13</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 22,47</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>-39,02%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-43,08%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 10,57</t>
+          <t>-7,18; 2,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 10,96</t>
+          <t>-8,79; 5,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 14,23</t>
+          <t>-13,73; 1,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 14,33</t>
+          <t>-78,58; 76,85</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-53,81; 82,66</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-72,63; 16,43</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 45,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 129,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-38,7%</t>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-26,02%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 7,66</t>
+          <t>-1,3; 8,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 1,57</t>
+          <t>-11,66; 2,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-54,15; 105,32</t>
+          <t>-6,53; 7,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 23,76</t>
+          <t>-21,51; 270,08</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-68,97; 48,47</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-41,78; 86,23</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 7,21</t>
+          <t>-7,96; 10,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,2</t>
+          <t>-6,47; 9,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 9,38</t>
+          <t>-7,84; 8,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 13,22</t>
+          <t>-9,14; 14,39</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 13,04</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 10,43</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>-29,23%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 9,42</t>
+          <t>-14,53; 2,68</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,04</t>
+          <t>-4,43; 5,88</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 229,83</t>
+          <t>-5,43; 4,77</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 124,79</t>
+          <t>-71,65; 33,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-47,34; 131,68</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-58,02; 123,96</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-42,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-28,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 19,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 34,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-39,01%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>71,22%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 17,07</t>
+          <t>-6,49; 7,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 14,93</t>
+          <t>-9,31; 1,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 24,76</t>
+          <t>-1,62; 16,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 22,14</t>
+          <t>-48,25; 116,22</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-70,53; 23,81</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; 227,57</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-11,23%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 9,81</t>
+          <t>-10,88; 7,35</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 8,06</t>
+          <t>-3,78; 11,34</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 160,27</t>
+          <t>-19,56; 1,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 142,45</t>
+          <t>-12,83; 9,39</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 14,77</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-23,46; 1,9</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-19,89%</t>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,6</t>
+          <t>-4,88; 7,61</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,71</t>
+          <t>-5,27; 5,9</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 7,18</t>
+          <t>-5,15; 8,99</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 10,73</t>
+          <t>-54,59; 164,84</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-49,97; 122,09</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-46,8; 177,18</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 7,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-39,19%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-28,19%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-39,97%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,9</t>
+          <t>-15,99; 3,55</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,91</t>
+          <t>-13,07; 3,68</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 27,89</t>
+          <t>-21,16; 3,5</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 29,07</t>
+          <t>-74,09; 42,25</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-64,14; 37,19</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-76,33; 29,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 17,5</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 14,16</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 21,73</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 26,4</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 20,87</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 34,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 8,77</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 8,61</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 12,11</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-57,27; 139,24</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-51,82; 139,97</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-80,94; 343,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-16,93%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-22,46%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 1,23</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 0,41</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 3,98</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-40,49; 15,77</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; 6,74</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-26,89; 43,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 7,01</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 5,95</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 4,86</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 8,9</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 7,39</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 6,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-12,38%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 2,09</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 2,24</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,98</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-39,01; 27,68</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-31,09; 32,18</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-33,15; 42,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
